--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4575.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4575.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alzarri S Joseph</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/06/2017</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>27/09/2017</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1440,7 +1495,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1648,7 +1700,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1688,7 +1740,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1736,7 +1787,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>22/02/2020</t>
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1846,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1900,7 +1950,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1952,7 +2002,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2004,7 +2054,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2044,7 +2094,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -2052,7 +2101,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2092,7 +2141,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -2100,7 +2148,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2140,7 +2188,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -2148,7 +2195,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2304,7 +2351,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2356,7 +2403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2408,7 +2455,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2460,7 +2507,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2512,7 +2559,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2564,7 +2611,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2616,7 +2663,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2656,7 +2703,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -2664,7 +2710,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2704,7 +2750,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/06/2022</t>
@@ -2712,7 +2757,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2764,7 +2809,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2816,7 +2861,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2868,7 +2913,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2920,7 +2965,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2960,7 +3005,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>22/07/2022</t>
@@ -2968,7 +3012,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3008,7 +3052,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -3016,7 +3059,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3056,7 +3099,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -3064,7 +3106,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3116,7 +3158,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3168,7 +3210,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3220,7 +3262,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3272,7 +3314,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3311,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +3375,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3370,7 +3412,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3407,7 +3449,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3444,7 +3486,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3481,7 +3523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3518,7 +3560,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3555,7 +3597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3592,7 +3634,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3629,7 +3671,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3666,7 +3708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3703,7 +3745,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3740,7 +3782,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3777,7 +3819,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3814,7 +3856,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3851,7 +3893,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3888,7 +3930,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3925,7 +3967,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3962,7 +4004,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3999,7 +4041,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4036,7 +4078,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4073,7 +4115,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4110,7 +4152,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4147,7 +4189,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4184,7 +4226,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4221,7 +4263,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4258,7 +4300,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4295,7 +4337,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4332,7 +4374,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4369,7 +4411,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4406,7 +4448,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4443,7 +4485,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4480,7 +4522,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4517,7 +4559,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4554,7 +4596,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4591,7 +4633,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4628,7 +4670,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4665,7 +4707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4702,7 +4744,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4739,7 +4781,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4776,7 +4818,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4813,7 +4855,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4850,7 +4892,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4887,7 +4929,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4924,7 +4966,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4961,7 +5003,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4998,7 +5040,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5035,7 +5077,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5072,7 +5114,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5109,7 +5151,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5146,7 +5188,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5183,7 +5225,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5220,7 +5262,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5257,7 +5299,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5294,7 +5336,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5331,7 +5373,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4727</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5368,7 +5410,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4731</t>
+          <t>4731</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5394,6 +5436,479 @@
       <c r="G56" t="inlineStr">
         <is>
           <t>3/50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17.16%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.43%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4575.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4575.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5496,15 +5497,417 @@
           <t>4486</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17.16%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.43%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5514,13 +5917,6 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5528,29 +5924,12 @@
           <t>4520</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5560,13 +5939,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5576,13 +5948,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5590,27 +5955,14 @@
           <t>4535</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.63%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5620,27 +5972,14 @@
           <t>4536</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17.16%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5650,15 +5989,14 @@
           <t>4577</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5668,15 +6006,14 @@
           <t>4580</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5688,13 +6025,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5704,13 +6034,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5718,25 +6041,12 @@
           <t>4611</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5744,27 +6054,14 @@
           <t>4616</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.93%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5774,15 +6071,14 @@
           <t>4621</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5794,13 +6090,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5808,15 +6097,14 @@
           <t>4636</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5826,27 +6114,14 @@
           <t>4639</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.43%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5858,13 +6133,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5874,13 +6142,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5888,27 +6149,14 @@
           <t>4731</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>11</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4575.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4575.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -860,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -907,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -919,7 +921,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -954,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -966,7 +969,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1001,6 +1004,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/06/2017</t>
@@ -1152,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>27/09/2017</t>
@@ -1199,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -1350,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -1496,6 +1504,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1595,6 +1604,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -1642,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -1741,6 +1752,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -1788,6 +1800,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>22/02/2020</t>
@@ -2095,6 +2108,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>10/03/2021</t>
@@ -2142,6 +2156,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -2189,6 +2204,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -2704,6 +2720,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -2751,6 +2768,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>02/06/2022</t>
@@ -3006,6 +3024,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>22/07/2022</t>
@@ -3053,6 +3072,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -3100,6 +3120,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -5443,724 +5464,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.63%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17.16%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.93%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.43%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>